--- a/biology/Botanique/Proteaceae/Proteaceae.xlsx
+++ b/biology/Botanique/Proteaceae/Proteaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Protéacées,  en latin Proteaceae, sont une famille de plantes dicotylédones qui comprend près de 2 000 espèces réparties en presque 80 genres. Ce sont des arbres et des arbustes, (quelques plantes herbacées), généralement des zones arides, à feuilles persistantes, des régions tempérées, subtropicales à tropicales, principalement dans l'hémisphère sud.
-Il est intéressant de noter que la plupart des plantes de cette famille ne possède pas de mycorhizes, mais un autre type de structure racinaire appelé racine protéoïde[1].
+Il est intéressant de noter que la plupart des plantes de cette famille ne possède pas de mycorhizes, mais un autre type de structure racinaire appelé racine protéoïde.
 Dans cette famille, on peut citer les genres :
 Macadamia, dont plusieurs espèces fournissent des fruits comestibles (noix de macadamia  ou noix du Queensland) cultivés en Australie, à Hawaii ou en Californie.
 Protea, avec la protéa géante (Protea cynaroides) ou protéa à fleur d'artichaut qui est l'un  des symboles nationaux de l'Afrique du Sud.
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Protea qui est le nom grec de Πρωτεύς / Proteus, demi-dieu de la mer et des rivières, fils aîné de Poséidon dans la mythologie grecque antique. Ces plantes peuvent en effet se présenter sous de nombreuses formes différentes à l'image du dieu Protée[2], lequel peut, selon la mythologie, prendre l'apparence d'un lion, d'un serpent, d'un léopard, d'un cochon, d'un arbre ou même de l'eau elle-même.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Protea qui est le nom grec de Πρωτεύς / Proteus, demi-dieu de la mer et des rivières, fils aîné de Poséidon dans la mythologie grecque antique. Ces plantes peuvent en effet se présenter sous de nombreuses formes différentes à l'image du dieu Protée, lequel peut, selon la mythologie, prendre l'apparence d'un lion, d'un serpent, d'un léopard, d'un cochon, d'un arbre ou même de l'eau elle-même.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (26 avr. 2010)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 avr. 2010) :
 Acidonia
 Adenanthos
 Agastachys
@@ -629,7 +645,7 @@
 Vexatorella
 Virotia
 Xylomelum
-Selon DELTA Angio           (26 avr. 2010)[4] :
+Selon DELTA Angio           (26 avr. 2010) :
 Acidonia
 Adenanthos
 Agastachys
@@ -706,7 +722,7 @@
 Vexatorella
 Virotia
 Xylomelum
-Selon Angiosperm Phylogeny Website                        (26 avr. 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (26 avr. 2010) :
 Adenanthos Labill.
 Agastachys R.Br.
 Alloxylon P.H.Weston &amp; Crisp
@@ -776,7 +792,7 @@
 Telopea R.Br.
 Vexatorella Rourke
 Xylomelum Sm.
-Selon ITIS      (26 avr. 2010)[6] :
+Selon ITIS      (26 avr. 2010) :
 Grevillea  R. Br. ex Knight
 Macadamia  F. Muell.
 Stenocarpus  R. Br.</t>
